--- a/Documents/Variables_Needed.xlsx
+++ b/Documents/Variables_Needed.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62DF6626-A6A4-47AF-B178-416039601C5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Changes" sheetId="3" r:id="rId1"/>
     <sheet name="Variables Vs DataModel" sheetId="1" r:id="rId2"/>
     <sheet name="Scenarios" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>Hypothesis</t>
   </si>
@@ -108,12 +107,6 @@
     <t>Damage incuured outside coverage period</t>
   </si>
   <si>
-    <t>Policy enroled</t>
-  </si>
-  <si>
-    <t>Policy Covergae (Different Causes)</t>
-  </si>
-  <si>
     <t>Policy Enrollment Date</t>
   </si>
   <si>
@@ -180,12 +173,6 @@
     <t>value = 1 represents Manual Check</t>
   </si>
   <si>
-    <t>cc_Incident</t>
-  </si>
-  <si>
-    <t>LossEstimate</t>
-  </si>
-  <si>
     <t>Subtype = 1 represents Payment Transaction</t>
   </si>
   <si>
@@ -229,13 +216,155 @@
   </si>
   <si>
     <t xml:space="preserve">cc_matter </t>
+  </si>
+  <si>
+    <t>Fraud Indicator</t>
+  </si>
+  <si>
+    <t>General Contactor Indicator</t>
+  </si>
+  <si>
+    <t>DUNS number</t>
+  </si>
+  <si>
+    <t>Social Security Number</t>
+  </si>
+  <si>
+    <t>Log of Authority Limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_officialID </t>
+  </si>
+  <si>
+    <t>OfficialIDValue</t>
+  </si>
+  <si>
+    <t>set OfficialIDType value = 4</t>
+  </si>
+  <si>
+    <t>set OfficialIDType value = 6</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>cc_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AuthorityProfileID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">select AUTHORITYPROFILEID from cc_user; 
+select Name,DESCRIPTION from CC_AUTHORITYPROFILE where id = 1;   
+select LIMITAMOUNT,LIMITTYPE from CC_AUTHORITYLIMIT where profileID = 1;    // LimitType is FK reference of cctl_authoritylimittype , ProfileID is FK reference of AuthorityProfile
+select NAME from CCTL_AUTHORITYLIMITTYPE;
+</t>
+  </si>
+  <si>
+    <t>cc_claimIndicator</t>
+  </si>
+  <si>
+    <t>isOn = 1( Value =1 represents Flag is set for special investigation)</t>
+  </si>
+  <si>
+    <t>There can be more than one matter involved in a claim</t>
+  </si>
+  <si>
+    <t>Credit Score Rating</t>
+  </si>
+  <si>
+    <t>cc_catastrophe</t>
+  </si>
+  <si>
+    <t>CATASTROPHEVALIDFROM,CATASTROPHEVALIDTO</t>
+  </si>
+  <si>
+    <t>cc_catastrophezone</t>
+  </si>
+  <si>
+    <t>It has FK reference to Catastrophe</t>
+  </si>
+  <si>
+    <t>Catastrophe</t>
+  </si>
+  <si>
+    <t>This Field would be non-null if it is associated with a Catastrophe</t>
+  </si>
+  <si>
+    <t>cc_coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tables only contain the latest data and the information of last updated User and last update time. Also creation time and ID of the user who has created the data in the first place. </t>
+  </si>
+  <si>
+    <t>Could not find anything in Claimcenter as of now</t>
+  </si>
+  <si>
+    <t>It will be available in Policy system</t>
+  </si>
+  <si>
+    <t>Question for Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc_Claim </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Adjuster Experience level</t>
+  </si>
+  <si>
+    <t>Policy Coverage (Different Causes)</t>
+  </si>
+  <si>
+    <t>Policy enroled/ Policy type</t>
+  </si>
+  <si>
+    <t>ExperienceLevel</t>
+  </si>
+  <si>
+    <t>ExperienceLevel is FK to cctl_UserExperienceType</t>
+  </si>
+  <si>
+    <t>It has FK reference to the cc_Claim(ClaimID) and set SubType = 4</t>
+  </si>
+  <si>
+    <t>set subtype = 1.It has FK reference(PolicyID) to the cc_Policy</t>
+  </si>
+  <si>
+    <t>cc_Claim,cc_policy</t>
+  </si>
+  <si>
+    <t>cc_claim - LOBCode, cc_Policy - PolicyType</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Payto - Vendor/ Insured/ Claimant</t>
+  </si>
+  <si>
+    <t>Limit for Each claim</t>
+  </si>
+  <si>
+    <t>Aggregate Limit of claimid</t>
+  </si>
+  <si>
+    <t>Total Insured Value</t>
+  </si>
+  <si>
+    <t>UPDATEUSERID</t>
+  </si>
+  <si>
+    <t>TAXID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,15 +387,8 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF660E7A"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,8 +419,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -313,32 +459,6 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -367,44 +487,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,358 +835,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031E847B-11C8-4D29-A4D5-56022B05A888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" customWidth="1"/>
-    <col min="5" max="5" width="66.08984375" customWidth="1"/>
-    <col min="6" max="6" width="38.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="66.109375" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="27" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="21"/>
+      <c r="C7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="21"/>
+      <c r="C8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="21"/>
+      <c r="C30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="21"/>
+      <c r="C31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="21"/>
+      <c r="C32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
+      <c r="C34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="6"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="6"/>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="6"/>
-      <c r="C18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="6"/>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="6"/>
-      <c r="C29" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
-      <c r="C30" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="6"/>
-      <c r="C31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="6"/>
-      <c r="C32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="6"/>
-      <c r="C34" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="2:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1044,70 +1441,73 @@
     <mergeCell ref="B28:B32"/>
     <mergeCell ref="B33:B34"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1" display="ClaimCenter903\build\dictionary\data\data\full\CatastropheZone.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835B462D-B33D-451B-ADF7-B645C3FAD69F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="62.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+    </row>
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
